--- a/Resources/Infiltration Reference.xlsx
+++ b/Resources/Infiltration Reference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\REEDR\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68329EF0-3FF2-428B-ADD7-9E78DE6D9D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98CAEC-6BBE-40C0-88CF-8BE2ED63713D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2049D6B4-F134-44AF-8070-D609C6F41BA8}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Infiltration Calcs" sheetId="3" r:id="rId1"/>
     <sheet name="REEDR Implementation" sheetId="4" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>1 l/s =</t>
   </si>
@@ -957,15 +954,6 @@
     </r>
   </si>
   <si>
-    <t>Estimated ACHn, ACH50/20</t>
-  </si>
-  <si>
-    <t>LBL Corrected Factor, N</t>
-  </si>
-  <si>
-    <t>Estimated ACHn, ACH50/N</t>
-  </si>
-  <si>
     <t>ACHn est. high</t>
   </si>
   <si>
@@ -1173,6 +1161,44 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>NL (normalized leakage)</t>
+  </si>
+  <si>
+    <r>
+      <t>Conditioned Square Footage (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Ceiling</t>
   </si>
 </sst>
 </file>
@@ -1181,11 +1207,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1291,12 +1317,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1304,28 +1330,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1337,19 +1359,21 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1367,16 +1391,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1664,893 +1678,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="README"/>
-      <sheetName val="Input_Data_Dictionary"/>
-      <sheetName val="Model_Inputs"/>
-      <sheetName val="Model_Inputs (2)"/>
-      <sheetName val="Model Input Maker"/>
-      <sheetName val="REEDR inputs"/>
-      <sheetName val="SEEM_inputs"/>
-      <sheetName val="Lookups for SEEM Comparison"/>
-      <sheetName val="Test Runs"/>
-      <sheetName val="Htg_StPt_Sch_EZ"/>
-      <sheetName val="Clg_StPt_Sch_EZ"/>
-      <sheetName val="DHW_StPt_Sch_EZ"/>
-      <sheetName val="Misc_Elec_Gains_Sch_EZ"/>
-      <sheetName val="Misc_Gas_Gains_Sch_EZ"/>
-      <sheetName val="Schedules_8760"/>
-      <sheetName val="Drop_Down_Lists"/>
-      <sheetName val="Infiltration Reference"/>
-      <sheetName val="Wall Insulation Reference"/>
-      <sheetName val="Wall Insulation Reference (2)"/>
-      <sheetName val="Wall Insulation Reference (3)"/>
-      <sheetName val="Wall Insulation Reference (4)"/>
-      <sheetName val="Ceil Insulation Reference"/>
-      <sheetName val="Ceil Insulation Reference ( (3)"/>
-      <sheetName val="Ceil Insulation Reference ( (4)"/>
-      <sheetName val="Ceil Insulation Reference ( (5)"/>
-      <sheetName val="Ceil Insulation Reference (2)"/>
-      <sheetName val="Ceil Insulation Reference (3)"/>
-      <sheetName val="Ceil Insulation Reference (4)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16">
-        <row r="3">
-          <cell r="N3" t="str">
-            <v>15-1</v>
-          </cell>
-          <cell r="O3">
-            <v>1</v>
-          </cell>
-          <cell r="P3">
-            <v>1</v>
-          </cell>
-          <cell r="Q3">
-            <v>0.7</v>
-          </cell>
-          <cell r="R3">
-            <v>15.049999999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4" t="str">
-            <v>15-2</v>
-          </cell>
-          <cell r="O4">
-            <v>0.8</v>
-          </cell>
-          <cell r="P4">
-            <v>1</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.7</v>
-          </cell>
-          <cell r="R4">
-            <v>12.04</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5" t="str">
-            <v>15-3</v>
-          </cell>
-          <cell r="O5">
-            <v>0.7</v>
-          </cell>
-          <cell r="P5">
-            <v>1</v>
-          </cell>
-          <cell r="Q5">
-            <v>0.7</v>
-          </cell>
-          <cell r="R5">
-            <v>10.534999999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6" t="str">
-            <v>14-1</v>
-          </cell>
-          <cell r="O6">
-            <v>1</v>
-          </cell>
-          <cell r="P6">
-            <v>1</v>
-          </cell>
-          <cell r="Q6">
-            <v>0.7</v>
-          </cell>
-          <cell r="R6">
-            <v>15.049999999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7" t="str">
-            <v>14-2</v>
-          </cell>
-          <cell r="O7">
-            <v>0.8</v>
-          </cell>
-          <cell r="P7">
-            <v>1</v>
-          </cell>
-          <cell r="Q7">
-            <v>0.7</v>
-          </cell>
-          <cell r="R7">
-            <v>12.04</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="N8" t="str">
-            <v>14-3</v>
-          </cell>
-          <cell r="O8">
-            <v>0.7</v>
-          </cell>
-          <cell r="P8">
-            <v>1</v>
-          </cell>
-          <cell r="Q8">
-            <v>0.7</v>
-          </cell>
-          <cell r="R8">
-            <v>10.534999999999998</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="N9" t="str">
-            <v>13-1</v>
-          </cell>
-          <cell r="O9">
-            <v>1</v>
-          </cell>
-          <cell r="P9">
-            <v>1</v>
-          </cell>
-          <cell r="Q9">
-            <v>0.7</v>
-          </cell>
-          <cell r="R9">
-            <v>15.049999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="N10" t="str">
-            <v>13-2</v>
-          </cell>
-          <cell r="O10">
-            <v>0.8</v>
-          </cell>
-          <cell r="P10">
-            <v>1</v>
-          </cell>
-          <cell r="Q10">
-            <v>0.7</v>
-          </cell>
-          <cell r="R10">
-            <v>12.04</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11" t="str">
-            <v>13-3</v>
-          </cell>
-          <cell r="O11">
-            <v>0.7</v>
-          </cell>
-          <cell r="P11">
-            <v>1</v>
-          </cell>
-          <cell r="Q11">
-            <v>0.7</v>
-          </cell>
-          <cell r="R11">
-            <v>10.534999999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12" t="str">
-            <v>12-1</v>
-          </cell>
-          <cell r="O12">
-            <v>1</v>
-          </cell>
-          <cell r="P12">
-            <v>1</v>
-          </cell>
-          <cell r="Q12">
-            <v>0.7</v>
-          </cell>
-          <cell r="R12">
-            <v>15.049999999999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13" t="str">
-            <v>12-2</v>
-          </cell>
-          <cell r="O13">
-            <v>0.8</v>
-          </cell>
-          <cell r="P13">
-            <v>1</v>
-          </cell>
-          <cell r="Q13">
-            <v>0.7</v>
-          </cell>
-          <cell r="R13">
-            <v>12.04</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14" t="str">
-            <v>12-3</v>
-          </cell>
-          <cell r="O14">
-            <v>0.7</v>
-          </cell>
-          <cell r="P14">
-            <v>1</v>
-          </cell>
-          <cell r="Q14">
-            <v>0.7</v>
-          </cell>
-          <cell r="R14">
-            <v>10.534999999999998</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15" t="str">
-            <v>11-1</v>
-          </cell>
-          <cell r="O15">
-            <v>1</v>
-          </cell>
-          <cell r="P15">
-            <v>1</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.7</v>
-          </cell>
-          <cell r="R15">
-            <v>15.049999999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16" t="str">
-            <v>11-2</v>
-          </cell>
-          <cell r="O16">
-            <v>0.8</v>
-          </cell>
-          <cell r="P16">
-            <v>1</v>
-          </cell>
-          <cell r="Q16">
-            <v>0.7</v>
-          </cell>
-          <cell r="R16">
-            <v>12.04</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17" t="str">
-            <v>11-3</v>
-          </cell>
-          <cell r="O17">
-            <v>0.7</v>
-          </cell>
-          <cell r="P17">
-            <v>1</v>
-          </cell>
-          <cell r="Q17">
-            <v>0.7</v>
-          </cell>
-          <cell r="R17">
-            <v>10.534999999999998</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18" t="str">
-            <v>10-1</v>
-          </cell>
-          <cell r="O18">
-            <v>1</v>
-          </cell>
-          <cell r="P18">
-            <v>1</v>
-          </cell>
-          <cell r="Q18">
-            <v>0.85</v>
-          </cell>
-          <cell r="R18">
-            <v>18.274999999999999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19" t="str">
-            <v>10-2</v>
-          </cell>
-          <cell r="O19">
-            <v>0.8</v>
-          </cell>
-          <cell r="P19">
-            <v>1</v>
-          </cell>
-          <cell r="Q19">
-            <v>0.85</v>
-          </cell>
-          <cell r="R19">
-            <v>14.62</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20" t="str">
-            <v>10-3</v>
-          </cell>
-          <cell r="O20">
-            <v>0.7</v>
-          </cell>
-          <cell r="P20">
-            <v>1</v>
-          </cell>
-          <cell r="Q20">
-            <v>0.85</v>
-          </cell>
-          <cell r="R20">
-            <v>12.792499999999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="N21" t="str">
-            <v>9-1</v>
-          </cell>
-          <cell r="O21">
-            <v>1</v>
-          </cell>
-          <cell r="P21">
-            <v>1</v>
-          </cell>
-          <cell r="Q21">
-            <v>0.85</v>
-          </cell>
-          <cell r="R21">
-            <v>18.274999999999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="N22" t="str">
-            <v>9-2</v>
-          </cell>
-          <cell r="O22">
-            <v>0.8</v>
-          </cell>
-          <cell r="P22">
-            <v>1</v>
-          </cell>
-          <cell r="Q22">
-            <v>0.85</v>
-          </cell>
-          <cell r="R22">
-            <v>14.62</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23" t="str">
-            <v>9-3</v>
-          </cell>
-          <cell r="O23">
-            <v>0.7</v>
-          </cell>
-          <cell r="P23">
-            <v>1</v>
-          </cell>
-          <cell r="Q23">
-            <v>0.85</v>
-          </cell>
-          <cell r="R23">
-            <v>12.792499999999999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24" t="str">
-            <v>8-1</v>
-          </cell>
-          <cell r="O24">
-            <v>1</v>
-          </cell>
-          <cell r="P24">
-            <v>1</v>
-          </cell>
-          <cell r="Q24">
-            <v>0.85</v>
-          </cell>
-          <cell r="R24">
-            <v>18.274999999999999</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="N25" t="str">
-            <v>8-2</v>
-          </cell>
-          <cell r="O25">
-            <v>0.8</v>
-          </cell>
-          <cell r="P25">
-            <v>1</v>
-          </cell>
-          <cell r="Q25">
-            <v>0.85</v>
-          </cell>
-          <cell r="R25">
-            <v>14.62</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="N26" t="str">
-            <v>8-3</v>
-          </cell>
-          <cell r="O26">
-            <v>0.7</v>
-          </cell>
-          <cell r="P26">
-            <v>1</v>
-          </cell>
-          <cell r="Q26">
-            <v>0.85</v>
-          </cell>
-          <cell r="R26">
-            <v>12.792499999999999</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="N27" t="str">
-            <v>7-1</v>
-          </cell>
-          <cell r="O27">
-            <v>1</v>
-          </cell>
-          <cell r="P27">
-            <v>1</v>
-          </cell>
-          <cell r="Q27">
-            <v>1</v>
-          </cell>
-          <cell r="R27">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="N28" t="str">
-            <v>7-2</v>
-          </cell>
-          <cell r="O28">
-            <v>0.8</v>
-          </cell>
-          <cell r="P28">
-            <v>1</v>
-          </cell>
-          <cell r="Q28">
-            <v>1</v>
-          </cell>
-          <cell r="R28">
-            <v>17.2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="N29" t="str">
-            <v>7-3</v>
-          </cell>
-          <cell r="O29">
-            <v>0.7</v>
-          </cell>
-          <cell r="P29">
-            <v>1</v>
-          </cell>
-          <cell r="Q29">
-            <v>1</v>
-          </cell>
-          <cell r="R29">
-            <v>15.049999999999999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="N30" t="str">
-            <v>6-1</v>
-          </cell>
-          <cell r="O30">
-            <v>1</v>
-          </cell>
-          <cell r="P30">
-            <v>1</v>
-          </cell>
-          <cell r="Q30">
-            <v>1</v>
-          </cell>
-          <cell r="R30">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="N31" t="str">
-            <v>6-2</v>
-          </cell>
-          <cell r="O31">
-            <v>0.8</v>
-          </cell>
-          <cell r="P31">
-            <v>1</v>
-          </cell>
-          <cell r="Q31">
-            <v>1</v>
-          </cell>
-          <cell r="R31">
-            <v>17.2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="N32" t="str">
-            <v>6-3</v>
-          </cell>
-          <cell r="O32">
-            <v>0.7</v>
-          </cell>
-          <cell r="P32">
-            <v>1</v>
-          </cell>
-          <cell r="Q32">
-            <v>1</v>
-          </cell>
-          <cell r="R32">
-            <v>15.049999999999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="N33" t="str">
-            <v>5-1</v>
-          </cell>
-          <cell r="O33">
-            <v>1</v>
-          </cell>
-          <cell r="P33">
-            <v>1</v>
-          </cell>
-          <cell r="Q33">
-            <v>1</v>
-          </cell>
-          <cell r="R33">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="N34" t="str">
-            <v>5-2</v>
-          </cell>
-          <cell r="O34">
-            <v>0.8</v>
-          </cell>
-          <cell r="P34">
-            <v>1</v>
-          </cell>
-          <cell r="Q34">
-            <v>1</v>
-          </cell>
-          <cell r="R34">
-            <v>17.2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="N35" t="str">
-            <v>5-3</v>
-          </cell>
-          <cell r="O35">
-            <v>0.7</v>
-          </cell>
-          <cell r="P35">
-            <v>1</v>
-          </cell>
-          <cell r="Q35">
-            <v>1</v>
-          </cell>
-          <cell r="R35">
-            <v>15.049999999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="N36" t="str">
-            <v>4-1</v>
-          </cell>
-          <cell r="O36">
-            <v>1</v>
-          </cell>
-          <cell r="P36">
-            <v>1</v>
-          </cell>
-          <cell r="Q36">
-            <v>1.2</v>
-          </cell>
-          <cell r="R36">
-            <v>25.8</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="N37" t="str">
-            <v>4-2</v>
-          </cell>
-          <cell r="O37">
-            <v>0.8</v>
-          </cell>
-          <cell r="P37">
-            <v>1</v>
-          </cell>
-          <cell r="Q37">
-            <v>1.2</v>
-          </cell>
-          <cell r="R37">
-            <v>20.639999999999997</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="N38" t="str">
-            <v>4-3</v>
-          </cell>
-          <cell r="O38">
-            <v>0.7</v>
-          </cell>
-          <cell r="P38">
-            <v>1</v>
-          </cell>
-          <cell r="Q38">
-            <v>1.2</v>
-          </cell>
-          <cell r="R38">
-            <v>18.059999999999999</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="N39" t="str">
-            <v>3-1</v>
-          </cell>
-          <cell r="O39">
-            <v>1</v>
-          </cell>
-          <cell r="P39">
-            <v>1</v>
-          </cell>
-          <cell r="Q39">
-            <v>1.2</v>
-          </cell>
-          <cell r="R39">
-            <v>25.8</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="N40" t="str">
-            <v>3-2</v>
-          </cell>
-          <cell r="O40">
-            <v>0.8</v>
-          </cell>
-          <cell r="P40">
-            <v>1</v>
-          </cell>
-          <cell r="Q40">
-            <v>1.2</v>
-          </cell>
-          <cell r="R40">
-            <v>20.639999999999997</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="N41" t="str">
-            <v>3-3</v>
-          </cell>
-          <cell r="O41">
-            <v>0.7</v>
-          </cell>
-          <cell r="P41">
-            <v>1</v>
-          </cell>
-          <cell r="Q41">
-            <v>1.2</v>
-          </cell>
-          <cell r="R41">
-            <v>18.059999999999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="N42" t="str">
-            <v>2-1</v>
-          </cell>
-          <cell r="O42">
-            <v>1</v>
-          </cell>
-          <cell r="P42">
-            <v>1</v>
-          </cell>
-          <cell r="Q42">
-            <v>1.4</v>
-          </cell>
-          <cell r="R42">
-            <v>30.099999999999998</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="N43" t="str">
-            <v>2-2</v>
-          </cell>
-          <cell r="O43">
-            <v>0.8</v>
-          </cell>
-          <cell r="P43">
-            <v>1</v>
-          </cell>
-          <cell r="Q43">
-            <v>1.4</v>
-          </cell>
-          <cell r="R43">
-            <v>24.08</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="N44" t="str">
-            <v>2-3</v>
-          </cell>
-          <cell r="O44">
-            <v>0.7</v>
-          </cell>
-          <cell r="P44">
-            <v>1</v>
-          </cell>
-          <cell r="Q44">
-            <v>1.4</v>
-          </cell>
-          <cell r="R44">
-            <v>21.069999999999997</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="N45" t="str">
-            <v>1-1</v>
-          </cell>
-          <cell r="O45">
-            <v>1</v>
-          </cell>
-          <cell r="P45">
-            <v>1</v>
-          </cell>
-          <cell r="Q45">
-            <v>1.4</v>
-          </cell>
-          <cell r="R45">
-            <v>30.099999999999998</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="N46" t="str">
-            <v>1-2</v>
-          </cell>
-          <cell r="O46">
-            <v>0.8</v>
-          </cell>
-          <cell r="P46">
-            <v>1</v>
-          </cell>
-          <cell r="Q46">
-            <v>1.4</v>
-          </cell>
-          <cell r="R46">
-            <v>24.08</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="N47" t="str">
-            <v>1-3</v>
-          </cell>
-          <cell r="O47">
-            <v>0.7</v>
-          </cell>
-          <cell r="P47">
-            <v>1</v>
-          </cell>
-          <cell r="Q47">
-            <v>1.4</v>
-          </cell>
-          <cell r="R47">
-            <v>21.069999999999997</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="N48" t="str">
-            <v>0.5-1</v>
-          </cell>
-          <cell r="O48">
-            <v>1</v>
-          </cell>
-          <cell r="P48">
-            <v>1</v>
-          </cell>
-          <cell r="Q48">
-            <v>1.4</v>
-          </cell>
-          <cell r="R48">
-            <v>30.099999999999998</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="N49" t="str">
-            <v>0.5-2</v>
-          </cell>
-          <cell r="O49">
-            <v>0.8</v>
-          </cell>
-          <cell r="P49">
-            <v>1</v>
-          </cell>
-          <cell r="Q49">
-            <v>1.4</v>
-          </cell>
-          <cell r="R49">
-            <v>24.08</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="N50" t="str">
-            <v>0.5-3</v>
-          </cell>
-          <cell r="O50">
-            <v>0.7</v>
-          </cell>
-          <cell r="P50">
-            <v>1</v>
-          </cell>
-          <cell r="Q50">
-            <v>1.4</v>
-          </cell>
-          <cell r="R50">
-            <v>21.069999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2853,7 +1980,7 @@
   <dimension ref="B2:P58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,7 +2205,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="3">
@@ -3132,7 +2259,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C17">
@@ -3149,7 +2276,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="6">
@@ -3248,14 +2375,14 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
@@ -3290,13 +2417,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685F46A5-4F5D-4675-B19F-39DC2FBE8D01}">
-  <dimension ref="B2:V44"/>
+  <dimension ref="B2:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,7 +2445,7 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H2">
@@ -3326,6 +2453,16 @@
       </c>
       <c r="I2" t="s">
         <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O2" s="23">
+        <f>N2/$N$6</f>
+        <v>4.1929008936832096E-4</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
@@ -3339,7 +2476,7 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H3">
@@ -3347,6 +2484,17 @@
       </c>
       <c r="I3" t="s">
         <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3">
+        <f>2*0.00340012477060435</f>
+        <v>6.8002495412086998E-3</v>
+      </c>
+      <c r="O3" s="23">
+        <f t="shared" ref="O3:O5" si="0">N3/$N$6</f>
+        <v>0.28512772378602791</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
@@ -3360,6 +2508,17 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4">
+        <f>2*0.00255009357795326</f>
+        <v>5.1001871559065203E-3</v>
+      </c>
+      <c r="O4" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21384579283952074</v>
+      </c>
     </row>
     <row r="5" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -3372,1511 +2531,1527 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5">
+        <v>1.1939399618037E-2</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="0"/>
+        <v>0.50060719328508307</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f>SUM(N2:N5)</f>
+        <v>2.384983631515222E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>12</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>15</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>2</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>5</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>8</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>12</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>15</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>2</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>5</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>8</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>12</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>15</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="10">
         <v>2</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="10">
         <v>5</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <v>8</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="10">
         <v>12</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>2000</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>2000</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>2000</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>2000</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>2000</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>2000</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>2000</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>2000</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>2000</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>2000</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>2000</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>2000</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>2000</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>2000</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <v>2000</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="11">
         <v>2000</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="11">
         <v>2000</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="11">
         <v>2000</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="11">
         <v>2000</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="11">
         <v>2000</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>1</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>1</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>1</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>1</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>1</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>1</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>1</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="10">
         <v>1</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="10">
         <v>1</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="10">
         <v>1</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="10">
         <v>1</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>8</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>8</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>8</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>8</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>8</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>8</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>8</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>8</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>8</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>8</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>8</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>8</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <v>8</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <v>8</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>8</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="10">
         <v>8</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="10">
         <v>8</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <v>8</v>
       </c>
-      <c r="U12" s="11">
+      <c r="U12" s="10">
         <v>8</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>1.2</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>1.2</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>1.2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>1.2</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>1.2</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>1.2</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>1.2</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>1.2</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>1.2</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>1.2</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>1.2</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>1.2</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <v>1.2</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>1.2</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>1.2</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="10">
         <v>1.2</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="10">
         <v>1.2</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="10">
         <v>1.2</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="10">
         <v>1.2</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="10">
         <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>8</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>8</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>8</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>8</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>8</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>8</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>8</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>8</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>8</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>8</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>8</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>8</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="10">
         <v>8</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="10">
         <v>8</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>8</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="10">
         <v>8</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="10">
         <v>8</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="10">
         <v>8</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="10">
         <v>8</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="22">
+        <f>IF(C14&lt;&gt;"Heated Basement",(C10*C11)/$D$3,(C10*(C11+1))/$D$3)</f>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" ref="D18:V18" si="1">IF(D14&lt;&gt;"Heated Basement",(D10*D11)/$D$3,(D10*(D11+1))/$D$3)</f>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="N18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="O18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="1"/>
+        <v>185.8062598128931</v>
+      </c>
+      <c r="R18" s="22">
+        <f t="shared" si="1"/>
+        <v>371.61251962578621</v>
+      </c>
+      <c r="S18" s="22">
+        <f t="shared" si="1"/>
+        <v>371.61251962578621</v>
+      </c>
+      <c r="T18" s="22">
+        <f t="shared" si="1"/>
+        <v>371.61251962578621</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="1"/>
+        <v>371.61251962578621</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="1"/>
+        <v>371.61251962578621</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C19" s="13">
         <f>IF(C14="Heated Basement",C10*C11*C12+C15*C10,C10*C11*C12)</f>
         <v>16000</v>
       </c>
-      <c r="D18" s="15">
-        <f t="shared" ref="D18:V18" si="0">IF(D14="Heated Basement",D10*D11*D12+D15*D10,D10*D11*D12)</f>
+      <c r="D19" s="13">
+        <f t="shared" ref="D19:V19" si="2">IF(D14="Heated Basement",D10*D11*D12+D15*D10,D10*D11*D12)</f>
         <v>16000</v>
       </c>
-      <c r="E18" s="15">
-        <f t="shared" si="0"/>
+      <c r="E19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="F18" s="15">
-        <f t="shared" si="0"/>
+      <c r="F19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="G18" s="15">
-        <f t="shared" si="0"/>
+      <c r="G19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="H18" s="15">
-        <f t="shared" si="0"/>
+      <c r="H19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="I18" s="15">
-        <f t="shared" si="0"/>
+      <c r="I19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="J18" s="15">
-        <f t="shared" si="0"/>
+      <c r="J19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="K18" s="15">
-        <f t="shared" si="0"/>
+      <c r="K19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="L18" s="15">
-        <f t="shared" si="0"/>
+      <c r="L19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="M18" s="15">
-        <f t="shared" si="0"/>
+      <c r="M19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="N18" s="15">
-        <f t="shared" si="0"/>
+      <c r="N19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="O18" s="15">
-        <f t="shared" si="0"/>
+      <c r="O19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="P18" s="15">
-        <f t="shared" si="0"/>
+      <c r="P19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="Q18" s="15">
-        <f t="shared" si="0"/>
+      <c r="Q19" s="13">
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="R18" s="15">
-        <f t="shared" si="0"/>
+      <c r="R19" s="13">
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
-      <c r="S18" s="15">
-        <f t="shared" si="0"/>
+      <c r="S19" s="13">
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
-      <c r="T18" s="15">
-        <f t="shared" si="0"/>
+      <c r="T19" s="13">
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
-      <c r="U18" s="15">
-        <f t="shared" si="0"/>
+      <c r="U19" s="13">
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
-      <c r="V18" s="15">
-        <f t="shared" si="0"/>
+      <c r="V19" s="13">
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="22">
-        <f>(C9/60)*C18</f>
+      <c r="C20" s="20">
+        <f>(C9/60)*C19</f>
         <v>533.33333333333337</v>
       </c>
-      <c r="D19" s="22">
-        <f t="shared" ref="D19:H19" si="1">(D9/60)*D18</f>
+      <c r="D20" s="20">
+        <f t="shared" ref="D20:H20" si="3">(D9/60)*D19</f>
         <v>1333.3333333333333</v>
       </c>
-      <c r="E19" s="22">
-        <f t="shared" si="1"/>
+      <c r="E20" s="20">
+        <f t="shared" si="3"/>
         <v>2133.3333333333335</v>
       </c>
-      <c r="F19" s="22">
-        <f t="shared" si="1"/>
+      <c r="F20" s="20">
+        <f t="shared" si="3"/>
         <v>3200</v>
       </c>
-      <c r="G19" s="22">
-        <f t="shared" si="1"/>
+      <c r="G20" s="20">
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="H19" s="22">
-        <f t="shared" si="1"/>
+      <c r="H20" s="20">
+        <f t="shared" si="3"/>
         <v>533.33333333333337</v>
       </c>
-      <c r="I19" s="22">
-        <f t="shared" ref="I19" si="2">(I9/60)*I18</f>
+      <c r="I20" s="20">
+        <f t="shared" ref="I20" si="4">(I9/60)*I19</f>
         <v>1333.3333333333333</v>
       </c>
-      <c r="J19" s="22">
-        <f t="shared" ref="J19" si="3">(J9/60)*J18</f>
+      <c r="J20" s="20">
+        <f t="shared" ref="J20" si="5">(J9/60)*J19</f>
         <v>2133.3333333333335</v>
       </c>
-      <c r="K19" s="22">
-        <f t="shared" ref="K19" si="4">(K9/60)*K18</f>
+      <c r="K20" s="20">
+        <f t="shared" ref="K20" si="6">(K9/60)*K19</f>
         <v>3200</v>
       </c>
-      <c r="L19" s="22">
-        <f t="shared" ref="L19:M19" si="5">(L9/60)*L18</f>
+      <c r="L20" s="20">
+        <f t="shared" ref="L20:M20" si="7">(L9/60)*L19</f>
         <v>4000</v>
       </c>
-      <c r="M19" s="22">
-        <f t="shared" si="5"/>
+      <c r="M20" s="20">
+        <f t="shared" si="7"/>
         <v>533.33333333333337</v>
       </c>
-      <c r="N19" s="22">
-        <f t="shared" ref="N19" si="6">(N9/60)*N18</f>
+      <c r="N20" s="20">
+        <f t="shared" ref="N20" si="8">(N9/60)*N19</f>
         <v>1333.3333333333333</v>
       </c>
-      <c r="O19" s="22">
-        <f t="shared" ref="O19" si="7">(O9/60)*O18</f>
+      <c r="O20" s="20">
+        <f t="shared" ref="O20" si="9">(O9/60)*O19</f>
         <v>2133.3333333333335</v>
       </c>
-      <c r="P19" s="22">
-        <f t="shared" ref="P19" si="8">(P9/60)*P18</f>
+      <c r="P20" s="20">
+        <f t="shared" ref="P20" si="10">(P9/60)*P19</f>
         <v>3200</v>
       </c>
-      <c r="Q19" s="22">
-        <f t="shared" ref="Q19:R19" si="9">(Q9/60)*Q18</f>
+      <c r="Q20" s="20">
+        <f t="shared" ref="Q20:R20" si="11">(Q9/60)*Q19</f>
         <v>4000</v>
       </c>
-      <c r="R19" s="22">
-        <f t="shared" si="9"/>
+      <c r="R20" s="20">
+        <f t="shared" si="11"/>
         <v>1066.6666666666667</v>
       </c>
-      <c r="S19" s="22">
-        <f t="shared" ref="S19" si="10">(S9/60)*S18</f>
+      <c r="S20" s="20">
+        <f t="shared" ref="S20" si="12">(S9/60)*S19</f>
         <v>2666.6666666666665</v>
       </c>
-      <c r="T19" s="22">
-        <f t="shared" ref="T19" si="11">(T9/60)*T18</f>
+      <c r="T20" s="20">
+        <f t="shared" ref="T20" si="13">(T9/60)*T19</f>
         <v>4266.666666666667</v>
       </c>
-      <c r="U19" s="22">
-        <f t="shared" ref="U19" si="12">(U9/60)*U18</f>
+      <c r="U20" s="20">
+        <f t="shared" ref="U20" si="14">(U9/60)*U19</f>
         <v>6400</v>
       </c>
-      <c r="V19" s="22">
-        <f t="shared" ref="V19" si="13">(V9/60)*V18</f>
+      <c r="V20" s="20">
+        <f t="shared" ref="V20" si="15">(V9/60)*V19</f>
         <v>8000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="18">
-        <f>C19*$D$4</f>
-        <v>0.25170530666666668</v>
-      </c>
-      <c r="D20" s="18">
-        <f t="shared" ref="D20:V20" si="14">D19*$D$4</f>
-        <v>0.62926326666666665</v>
-      </c>
-      <c r="E20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.0068212266666667</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.5102318400000001</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.8877898</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="14"/>
-        <v>0.25170530666666668</v>
-      </c>
-      <c r="I20" s="18">
-        <f t="shared" si="14"/>
-        <v>0.62926326666666665</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.0068212266666667</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.5102318400000001</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.8877898</v>
-      </c>
-      <c r="M20" s="18">
-        <f t="shared" si="14"/>
-        <v>0.25170530666666668</v>
-      </c>
-      <c r="N20" s="18">
-        <f t="shared" si="14"/>
-        <v>0.62926326666666665</v>
-      </c>
-      <c r="O20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.0068212266666667</v>
-      </c>
-      <c r="P20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.5102318400000001</v>
-      </c>
-      <c r="Q20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.8877898</v>
-      </c>
-      <c r="R20" s="18">
-        <f t="shared" si="14"/>
-        <v>0.50341061333333337</v>
-      </c>
-      <c r="S20" s="18">
-        <f t="shared" si="14"/>
-        <v>1.2585265333333333</v>
-      </c>
-      <c r="T20" s="18">
-        <f t="shared" si="14"/>
-        <v>2.0136424533333335</v>
-      </c>
-      <c r="U20" s="18">
-        <f t="shared" si="14"/>
-        <v>3.0204636800000002</v>
-      </c>
-      <c r="V20" s="18">
-        <f t="shared" si="14"/>
-        <v>3.7755795999999999</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="18">
-        <f>C20*(4/50)^$H$3</f>
-        <v>4.8741721440530413E-2</v>
-      </c>
-      <c r="D21" s="18">
-        <f t="shared" ref="D21:V21" si="15">D20*(4/50)^$H$3</f>
-        <v>0.12185430360132603</v>
-      </c>
-      <c r="E21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.19496688576212165</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.29245032864318249</v>
-      </c>
-      <c r="G21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.36556291080397807</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" si="15"/>
-        <v>4.8741721440530413E-2</v>
-      </c>
-      <c r="I21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.12185430360132603</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.19496688576212165</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.29245032864318249</v>
-      </c>
-      <c r="L21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.36556291080397807</v>
-      </c>
-      <c r="M21" s="18">
-        <f t="shared" si="15"/>
-        <v>4.8741721440530413E-2</v>
-      </c>
-      <c r="N21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.12185430360132603</v>
-      </c>
-      <c r="O21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.19496688576212165</v>
-      </c>
-      <c r="P21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.29245032864318249</v>
-      </c>
-      <c r="Q21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.36556291080397807</v>
-      </c>
-      <c r="R21" s="18">
-        <f t="shared" si="15"/>
-        <v>9.7483442881060825E-2</v>
-      </c>
-      <c r="S21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.24370860720265206</v>
-      </c>
-      <c r="T21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.3899337715242433</v>
-      </c>
-      <c r="U21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.58490065728636498</v>
-      </c>
-      <c r="V21" s="18">
-        <f t="shared" si="15"/>
-        <v>0.73112582160795614</v>
+        <v>50</v>
+      </c>
+      <c r="C21" s="16">
+        <f>C20*$D$4</f>
+        <v>0.25170530666666668</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" ref="D21:V21" si="16">D20*$D$4</f>
+        <v>0.62926326666666665</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.0068212266666667</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.5102318400000001</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.8877898</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="16"/>
+        <v>0.25170530666666668</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="16"/>
+        <v>0.62926326666666665</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.0068212266666667</v>
+      </c>
+      <c r="K21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.5102318400000001</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.8877898</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="16"/>
+        <v>0.25170530666666668</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="16"/>
+        <v>0.62926326666666665</v>
+      </c>
+      <c r="O21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.0068212266666667</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.5102318400000001</v>
+      </c>
+      <c r="Q21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.8877898</v>
+      </c>
+      <c r="R21" s="16">
+        <f t="shared" si="16"/>
+        <v>0.50341061333333337</v>
+      </c>
+      <c r="S21" s="16">
+        <f t="shared" si="16"/>
+        <v>1.2585265333333333</v>
+      </c>
+      <c r="T21" s="16">
+        <f t="shared" si="16"/>
+        <v>2.0136424533333335</v>
+      </c>
+      <c r="U21" s="16">
+        <f t="shared" si="16"/>
+        <v>3.0204636800000002</v>
+      </c>
+      <c r="V21" s="16">
+        <f t="shared" si="16"/>
+        <v>3.7755795999999999</v>
       </c>
     </row>
     <row r="22" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="16">
-        <f>C21*SQRT($H$2/(2*4))/1</f>
-        <v>1.8916874965980924E-2</v>
+        <f>C21*(4/50)^$H$3</f>
+        <v>4.8741721440530413E-2</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" ref="D22:V22" si="16">D21*SQRT($H$2/(2*4))/1</f>
-        <v>4.7292187414952308E-2</v>
+        <f t="shared" ref="D22:V22" si="17">D21*(4/50)^$H$3</f>
+        <v>0.12185430360132603</v>
       </c>
       <c r="E22" s="16">
-        <f t="shared" si="16"/>
-        <v>7.5667499863923696E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.19496688576212165</v>
       </c>
       <c r="F22" s="16">
-        <f t="shared" si="16"/>
-        <v>0.11350124979588555</v>
+        <f t="shared" si="17"/>
+        <v>0.29245032864318249</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="16"/>
-        <v>0.14187656224485692</v>
+        <f t="shared" si="17"/>
+        <v>0.36556291080397807</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="16"/>
-        <v>1.8916874965980924E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.8741721440530413E-2</v>
       </c>
       <c r="I22" s="16">
-        <f t="shared" si="16"/>
-        <v>4.7292187414952308E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.12185430360132603</v>
       </c>
       <c r="J22" s="16">
-        <f t="shared" si="16"/>
-        <v>7.5667499863923696E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.19496688576212165</v>
       </c>
       <c r="K22" s="16">
-        <f t="shared" si="16"/>
-        <v>0.11350124979588555</v>
+        <f t="shared" si="17"/>
+        <v>0.29245032864318249</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" si="16"/>
-        <v>0.14187656224485692</v>
+        <f t="shared" si="17"/>
+        <v>0.36556291080397807</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" si="16"/>
-        <v>1.8916874965980924E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.8741721440530413E-2</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" si="16"/>
-        <v>4.7292187414952308E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.12185430360132603</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="16"/>
-        <v>7.5667499863923696E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.19496688576212165</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="16"/>
-        <v>0.11350124979588555</v>
+        <f t="shared" si="17"/>
+        <v>0.29245032864318249</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" si="16"/>
-        <v>0.14187656224485692</v>
+        <f t="shared" si="17"/>
+        <v>0.36556291080397807</v>
       </c>
       <c r="R22" s="16">
-        <f t="shared" si="16"/>
-        <v>3.7833749931961848E-2</v>
+        <f t="shared" si="17"/>
+        <v>9.7483442881060825E-2</v>
       </c>
       <c r="S22" s="16">
-        <f t="shared" si="16"/>
-        <v>9.4584374829904616E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.24370860720265206</v>
       </c>
       <c r="T22" s="16">
-        <f t="shared" si="16"/>
-        <v>0.15133499972784739</v>
+        <f t="shared" si="17"/>
+        <v>0.3899337715242433</v>
       </c>
       <c r="U22" s="16">
-        <f t="shared" si="16"/>
-        <v>0.2270024995917711</v>
+        <f t="shared" si="17"/>
+        <v>0.58490065728636498</v>
       </c>
       <c r="V22" s="16">
-        <f t="shared" si="16"/>
-        <v>0.28375312448971385</v>
+        <f t="shared" si="17"/>
+        <v>0.73112582160795614</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="14">
+        <f>C22*SQRT($H$2/(2*4))/1</f>
+        <v>1.8916874965980924E-2</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" ref="D23:V23" si="18">D22*SQRT($H$2/(2*4))/1</f>
+        <v>4.7292187414952308E-2</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="18"/>
+        <v>7.5667499863923696E-2</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.11350124979588555</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.14187656224485692</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="18"/>
+        <v>1.8916874965980924E-2</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="18"/>
+        <v>4.7292187414952308E-2</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="18"/>
+        <v>7.5667499863923696E-2</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.11350124979588555</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.14187656224485692</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="18"/>
+        <v>1.8916874965980924E-2</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="18"/>
+        <v>4.7292187414952308E-2</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="18"/>
+        <v>7.5667499863923696E-2</v>
+      </c>
+      <c r="P23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.11350124979588555</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.14187656224485692</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="18"/>
+        <v>3.7833749931961848E-2</v>
+      </c>
+      <c r="S23" s="14">
+        <f t="shared" si="18"/>
+        <v>9.4584374829904616E-2</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.15133499972784739</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.2270024995917711</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" si="18"/>
+        <v>0.28375312448971385</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="23">
-        <f>C22*$D$5</f>
+      <c r="C24" s="21">
+        <f>C23*$D$5</f>
         <v>29.321156197270433</v>
       </c>
-      <c r="D23" s="23">
-        <f t="shared" ref="D23:V23" si="17">D22*$D$5</f>
+      <c r="D24" s="21">
+        <f t="shared" ref="D24:V24" si="19">D23*$D$5</f>
         <v>73.302890493176079</v>
       </c>
-      <c r="E23" s="23">
-        <f t="shared" si="17"/>
+      <c r="E24" s="21">
+        <f t="shared" si="19"/>
         <v>117.28462478908173</v>
       </c>
-      <c r="F23" s="23">
-        <f t="shared" si="17"/>
+      <c r="F24" s="21">
+        <f t="shared" si="19"/>
         <v>175.92693718362261</v>
       </c>
-      <c r="G23" s="23">
-        <f t="shared" si="17"/>
+      <c r="G24" s="21">
+        <f t="shared" si="19"/>
         <v>219.90867147952824</v>
       </c>
-      <c r="H23" s="23">
-        <f t="shared" si="17"/>
+      <c r="H24" s="21">
+        <f t="shared" si="19"/>
         <v>29.321156197270433</v>
       </c>
-      <c r="I23" s="23">
-        <f t="shared" si="17"/>
+      <c r="I24" s="21">
+        <f t="shared" si="19"/>
         <v>73.302890493176079</v>
       </c>
-      <c r="J23" s="23">
-        <f t="shared" si="17"/>
+      <c r="J24" s="21">
+        <f t="shared" si="19"/>
         <v>117.28462478908173</v>
       </c>
-      <c r="K23" s="23">
-        <f t="shared" si="17"/>
+      <c r="K24" s="21">
+        <f t="shared" si="19"/>
         <v>175.92693718362261</v>
       </c>
-      <c r="L23" s="23">
-        <f t="shared" si="17"/>
+      <c r="L24" s="21">
+        <f t="shared" si="19"/>
         <v>219.90867147952824</v>
       </c>
-      <c r="M23" s="23">
-        <f t="shared" si="17"/>
+      <c r="M24" s="21">
+        <f t="shared" si="19"/>
         <v>29.321156197270433</v>
       </c>
-      <c r="N23" s="23">
-        <f t="shared" si="17"/>
+      <c r="N24" s="21">
+        <f t="shared" si="19"/>
         <v>73.302890493176079</v>
       </c>
-      <c r="O23" s="23">
-        <f t="shared" si="17"/>
+      <c r="O24" s="21">
+        <f t="shared" si="19"/>
         <v>117.28462478908173</v>
       </c>
-      <c r="P23" s="23">
-        <f t="shared" si="17"/>
+      <c r="P24" s="21">
+        <f t="shared" si="19"/>
         <v>175.92693718362261</v>
       </c>
-      <c r="Q23" s="23">
-        <f t="shared" si="17"/>
+      <c r="Q24" s="21">
+        <f t="shared" si="19"/>
         <v>219.90867147952824</v>
       </c>
-      <c r="R23" s="23">
-        <f t="shared" si="17"/>
+      <c r="R24" s="21">
+        <f t="shared" si="19"/>
         <v>58.642312394540866</v>
       </c>
-      <c r="S23" s="23">
-        <f t="shared" si="17"/>
+      <c r="S24" s="21">
+        <f t="shared" si="19"/>
         <v>146.60578098635216</v>
       </c>
-      <c r="T23" s="23">
-        <f t="shared" si="17"/>
+      <c r="T24" s="21">
+        <f t="shared" si="19"/>
         <v>234.56924957816346</v>
       </c>
-      <c r="U23" s="23">
-        <f t="shared" si="17"/>
+      <c r="U24" s="21">
+        <f t="shared" si="19"/>
         <v>351.85387436724523</v>
       </c>
-      <c r="V23" s="23">
-        <f t="shared" si="17"/>
+      <c r="V24" s="21">
+        <f t="shared" si="19"/>
         <v>439.81734295905648</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="19">
-        <f>C9/20</f>
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="19">
-        <f t="shared" ref="D24:V24" si="18">D9/20</f>
-        <v>0.25</v>
-      </c>
-      <c r="E24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.4</v>
-      </c>
-      <c r="F24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="G24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.75</v>
-      </c>
-      <c r="H24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="I24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
-      </c>
-      <c r="J24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.4</v>
-      </c>
-      <c r="K24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="L24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.75</v>
-      </c>
-      <c r="M24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="N24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
-      </c>
-      <c r="O24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.4</v>
-      </c>
-      <c r="P24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="Q24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.75</v>
-      </c>
-      <c r="R24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.1</v>
-      </c>
-      <c r="S24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
-      </c>
-      <c r="T24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.4</v>
-      </c>
-      <c r="U24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="V24" s="19">
-        <f t="shared" si="18"/>
-        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="15">
-        <f>VLOOKUP(C9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>30.099999999999998</v>
-      </c>
-      <c r="D25" s="15">
-        <f>VLOOKUP(D9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>21.5</v>
-      </c>
-      <c r="E25" s="15">
-        <f>VLOOKUP(E9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>18.274999999999999</v>
-      </c>
-      <c r="F25" s="15">
-        <f>VLOOKUP(F9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>15.049999999999999</v>
-      </c>
-      <c r="G25" s="15">
-        <f>VLOOKUP(G9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>15.049999999999999</v>
-      </c>
-      <c r="H25" s="15">
-        <f>VLOOKUP(H9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>30.099999999999998</v>
-      </c>
-      <c r="I25" s="15">
-        <f>VLOOKUP(I9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>21.5</v>
-      </c>
-      <c r="J25" s="15">
-        <f>VLOOKUP(J9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>18.274999999999999</v>
-      </c>
-      <c r="K25" s="15">
-        <f>VLOOKUP(K9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>15.049999999999999</v>
-      </c>
-      <c r="L25" s="15">
-        <f>VLOOKUP(L9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>15.049999999999999</v>
-      </c>
-      <c r="M25" s="15">
-        <f>VLOOKUP(M9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>30.099999999999998</v>
-      </c>
-      <c r="N25" s="15">
-        <f>VLOOKUP(N9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>21.5</v>
-      </c>
-      <c r="O25" s="15">
-        <f>VLOOKUP(O9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>18.274999999999999</v>
-      </c>
-      <c r="P25" s="15">
-        <f>VLOOKUP(P9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>15.049999999999999</v>
-      </c>
-      <c r="Q25" s="15">
-        <f>VLOOKUP(Q9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>15.049999999999999</v>
-      </c>
-      <c r="R25" s="15">
-        <f>VLOOKUP(R9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>30.099999999999998</v>
-      </c>
-      <c r="S25" s="15">
-        <f>VLOOKUP(S9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>21.5</v>
-      </c>
-      <c r="T25" s="15">
-        <f>VLOOKUP(T9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>18.274999999999999</v>
-      </c>
-      <c r="U25" s="15">
-        <f>VLOOKUP(U9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>15.049999999999999</v>
-      </c>
-      <c r="V25" s="15">
-        <f>VLOOKUP(V9&amp;"-1",'[1]Infiltration Reference'!$N$3:$R$50,5,FALSE)</f>
-        <v>15.049999999999999</v>
+        <v>54</v>
+      </c>
+      <c r="C25" s="17">
+        <f>C9/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" ref="D25:V25" si="20">D9/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="20"/>
+        <v>1.2</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="20"/>
+        <v>1.2</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" si="20"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="R25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+      <c r="S25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="U25" s="17">
+        <f t="shared" si="20"/>
+        <v>1.2</v>
+      </c>
+      <c r="V25" s="17">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="16">
-        <f>C9/C25</f>
-        <v>6.6445182724252497E-2</v>
-      </c>
-      <c r="D26" s="16">
-        <f t="shared" ref="D26:V26" si="19">D9/D25</f>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="E26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.43775649794801647</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.79734219269102991</v>
-      </c>
-      <c r="G26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.99667774086378746</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="19"/>
-        <v>6.6445182724252497E-2</v>
-      </c>
-      <c r="I26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="J26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.43775649794801647</v>
-      </c>
-      <c r="K26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.79734219269102991</v>
-      </c>
-      <c r="L26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.99667774086378746</v>
-      </c>
-      <c r="M26" s="16">
-        <f t="shared" si="19"/>
-        <v>6.6445182724252497E-2</v>
-      </c>
-      <c r="N26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="O26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.43775649794801647</v>
-      </c>
-      <c r="P26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.79734219269102991</v>
-      </c>
-      <c r="Q26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.99667774086378746</v>
-      </c>
-      <c r="R26" s="16">
-        <f t="shared" si="19"/>
-        <v>6.6445182724252497E-2</v>
-      </c>
-      <c r="S26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="T26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.43775649794801647</v>
-      </c>
-      <c r="U26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.79734219269102991</v>
-      </c>
-      <c r="V26" s="16">
-        <f t="shared" si="19"/>
-        <v>0.99667774086378746</v>
+        <v>55</v>
+      </c>
+      <c r="C26" s="17">
+        <f>C9/30</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" ref="D26:V26" si="21">D9/30</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="21"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="K26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="21"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="N26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="P26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="R26" s="17">
+        <f t="shared" si="21"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="S26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="U26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="V26" s="17">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="19">
-        <f>MAX(C24,C26)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="19">
-        <f t="shared" ref="D27:V27" si="20">MAX(D24,D26)</f>
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.43775649794801647</v>
-      </c>
-      <c r="F27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.79734219269102991</v>
-      </c>
-      <c r="G27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.99667774086378746</v>
-      </c>
-      <c r="H27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="I27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.25</v>
-      </c>
-      <c r="J27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.43775649794801647</v>
-      </c>
-      <c r="K27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.79734219269102991</v>
-      </c>
-      <c r="L27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.99667774086378746</v>
-      </c>
-      <c r="M27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="N27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.25</v>
-      </c>
-      <c r="O27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.43775649794801647</v>
-      </c>
-      <c r="P27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.79734219269102991</v>
-      </c>
-      <c r="Q27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.99667774086378746</v>
-      </c>
-      <c r="R27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.1</v>
-      </c>
-      <c r="S27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.25</v>
-      </c>
-      <c r="T27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.43775649794801647</v>
-      </c>
-      <c r="U27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.79734219269102991</v>
-      </c>
-      <c r="V27" s="19">
-        <f t="shared" si="20"/>
-        <v>0.99667774086378746</v>
+        <v>70</v>
+      </c>
+      <c r="C27" s="17">
+        <f>1000*(C23/C18)*(CONVERT(C11*C12,"ft","m")/2.5)^0.3</f>
+        <v>0.10105051572275663</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" ref="D27:V27" si="22">1000*(D23/D18)*(CONVERT(D11*D12,"ft","m")/2.5)^0.3</f>
+        <v>0.25262628930689157</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.4042020628910265</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.60630309433653973</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.7578788679206746</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.10105051572275663</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.25262628930689157</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.4042020628910265</v>
+      </c>
+      <c r="K27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.60630309433653973</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.7578788679206746</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.10105051572275663</v>
+      </c>
+      <c r="N27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.25262628930689157</v>
+      </c>
+      <c r="O27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.4042020628910265</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.60630309433653973</v>
+      </c>
+      <c r="Q27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.7578788679206746</v>
+      </c>
+      <c r="R27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.10105051572275663</v>
+      </c>
+      <c r="S27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.25262628930689157</v>
+      </c>
+      <c r="T27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.4042020628910265</v>
+      </c>
+      <c r="U27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.60630309433653973</v>
+      </c>
+      <c r="V27" s="17">
+        <f t="shared" si="22"/>
+        <v>0.7578788679206746</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="19">
-        <f>MIN(C24,C26)</f>
-        <v>6.6445182724252497E-2</v>
-      </c>
-      <c r="D28" s="19">
-        <f t="shared" ref="D28:V28" si="21">MIN(D24,D26)</f>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="E28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.4</v>
-      </c>
-      <c r="F28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.6</v>
-      </c>
-      <c r="G28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.75</v>
-      </c>
-      <c r="H28" s="19">
-        <f t="shared" si="21"/>
-        <v>6.6445182724252497E-2</v>
-      </c>
-      <c r="I28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="J28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.4</v>
-      </c>
-      <c r="K28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.6</v>
-      </c>
-      <c r="L28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.75</v>
-      </c>
-      <c r="M28" s="19">
-        <f t="shared" si="21"/>
-        <v>6.6445182724252497E-2</v>
-      </c>
-      <c r="N28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="O28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.4</v>
-      </c>
-      <c r="P28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.6</v>
-      </c>
-      <c r="Q28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.75</v>
-      </c>
-      <c r="R28" s="19">
-        <f t="shared" si="21"/>
-        <v>6.6445182724252497E-2</v>
-      </c>
-      <c r="S28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="T28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.4</v>
-      </c>
-      <c r="U28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.6</v>
-      </c>
-      <c r="V28" s="19">
-        <f t="shared" si="21"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" ref="C29:V29" si="23">IF(OR(C14="Vented Crawlspace",C14="Unheated Basement"),0.25/2,1/3/2)</f>
+        <v>0.125</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="N29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="O29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="R29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="U29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V29" s="18">
+        <f t="shared" si="23"/>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="30" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="20">
-        <f>IF(OR(C14="Vented Crawlspace",C14="Unheated Basement"),0.25/2,1/3/2)</f>
+        <v>61</v>
+      </c>
+      <c r="C30" s="18">
+        <f t="shared" ref="C30:V30" si="24">IF(OR(C14="Vented Crawlspace",C14="Unheated Basement"),0.25/2,1/3/2)</f>
         <v>0.125</v>
       </c>
-      <c r="D30" s="20">
-        <f t="shared" ref="D30:V30" si="22">IF(OR(D14="Vented Crawlspace",D14="Unheated Basement"),0.25/2,1/3/2)</f>
+      <c r="D30" s="18">
+        <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="E30" s="20">
-        <f t="shared" si="22"/>
+      <c r="E30" s="18">
+        <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="F30" s="20">
-        <f t="shared" si="22"/>
+      <c r="F30" s="18">
+        <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="G30" s="20">
-        <f t="shared" si="22"/>
+      <c r="G30" s="18">
+        <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="H30" s="20">
-        <f t="shared" si="22"/>
+      <c r="H30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I30" s="20">
-        <f t="shared" si="22"/>
+      <c r="I30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J30" s="20">
-        <f t="shared" si="22"/>
+      <c r="J30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K30" s="20">
-        <f t="shared" si="22"/>
+      <c r="K30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="L30" s="20">
-        <f t="shared" si="22"/>
+      <c r="L30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M30" s="20">
-        <f t="shared" si="22"/>
+      <c r="M30" s="18">
+        <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="N30" s="20">
-        <f t="shared" si="22"/>
+      <c r="N30" s="18">
+        <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="O30" s="20">
-        <f t="shared" si="22"/>
+      <c r="O30" s="18">
+        <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="P30" s="20">
-        <f t="shared" si="22"/>
+      <c r="P30" s="18">
+        <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="Q30" s="20">
-        <f t="shared" si="22"/>
+      <c r="Q30" s="18">
+        <f t="shared" si="24"/>
         <v>0.125</v>
       </c>
-      <c r="R30" s="20">
-        <f t="shared" si="22"/>
+      <c r="R30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="S30" s="20">
-        <f t="shared" si="22"/>
+      <c r="S30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="T30" s="20">
-        <f t="shared" si="22"/>
+      <c r="T30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="U30" s="20">
-        <f t="shared" si="22"/>
+      <c r="U30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="V30" s="20">
-        <f t="shared" si="22"/>
+      <c r="V30" s="18">
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -4884,1131 +4059,1046 @@
       <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="20">
-        <f>IF(OR(C14="Vented Crawlspace",C14="Unheated Basement"),0.25/2,1/3/2)</f>
-        <v>0.125</v>
-      </c>
-      <c r="D31" s="20">
-        <f t="shared" ref="D31:V31" si="23">IF(OR(D14="Vented Crawlspace",D14="Unheated Basement"),0.25/2,1/3/2)</f>
-        <v>0.125</v>
-      </c>
-      <c r="E31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.125</v>
-      </c>
-      <c r="F31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.125</v>
-      </c>
-      <c r="G31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.125</v>
-      </c>
-      <c r="H31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.125</v>
-      </c>
-      <c r="N31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.125</v>
-      </c>
-      <c r="O31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.125</v>
-      </c>
-      <c r="P31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.125</v>
-      </c>
-      <c r="Q31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.125</v>
-      </c>
-      <c r="R31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="S31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="T31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="U31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="V31" s="20">
-        <f t="shared" si="23"/>
-        <v>0.16666666666666666</v>
+      <c r="C31" s="18">
+        <f>2*C29+2*C30</f>
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="18">
+        <f t="shared" ref="D31:V31" si="25">2*D29+2*D30</f>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="O31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="P31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V31" s="18">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="32" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="20">
-        <f>2*C30+2*C31</f>
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="20">
-        <f t="shared" ref="D32:V32" si="24">2*D30+2*D31</f>
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="F32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="N32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="O32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="P32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
-      </c>
-      <c r="R32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="V32" s="20">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
+        <v>62</v>
+      </c>
+      <c r="C32" s="18">
+        <f t="shared" ref="C32:V32" si="26">IF(OR(C14="Vented Crawlspace",C14="Unheated Basement"),0.25,1/3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="G32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="N32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="O32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="P32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="R32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V32" s="18">
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="33" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="18">
+        <f t="shared" ref="C33:V33" si="27">IF(OR(C14="Vented Crawlspace",C14="Unheated Basement"),0.25,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="N33" s="18">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="O33" s="18">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="P33" s="18">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q33" s="18">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="R33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="20">
-        <f>IF(OR(C14="Vented Crawlspace",C14="Unheated Basement"),0.25,1/3)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D33" s="20">
-        <f t="shared" ref="D33:V33" si="25">IF(OR(D14="Vented Crawlspace",D14="Unheated Basement"),0.25,1/3)</f>
-        <v>0.25</v>
-      </c>
-      <c r="E33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="F33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="H33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="N33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="O33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="P33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
-      </c>
-      <c r="R33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="T33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="V33" s="20">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="20">
-        <f>IF(OR(C14="Vented Crawlspace",C14="Unheated Basement"),0.25,0)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D34" s="20">
-        <f t="shared" ref="D34:V34" si="26">IF(OR(D14="Vented Crawlspace",D14="Unheated Basement"),0.25,0)</f>
-        <v>0.25</v>
-      </c>
-      <c r="E34" s="20">
-        <f t="shared" si="26"/>
-        <v>0.25</v>
-      </c>
-      <c r="F34" s="20">
-        <f t="shared" si="26"/>
-        <v>0.25</v>
-      </c>
-      <c r="G34" s="20">
-        <f t="shared" si="26"/>
-        <v>0.25</v>
-      </c>
-      <c r="H34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="20">
-        <f t="shared" si="26"/>
-        <v>0.25</v>
-      </c>
-      <c r="N34" s="20">
-        <f t="shared" si="26"/>
-        <v>0.25</v>
-      </c>
-      <c r="O34" s="20">
-        <f t="shared" si="26"/>
-        <v>0.25</v>
-      </c>
-      <c r="P34" s="20">
-        <f t="shared" si="26"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q34" s="20">
-        <f t="shared" si="26"/>
-        <v>0.25</v>
-      </c>
-      <c r="R34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
+      <c r="C34" s="19">
+        <f>SUM(C31:C33)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
+        <f t="shared" ref="D34:V34" si="28">SUM(D31:D33)</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="S34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="T34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="U34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="V34" s="19">
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="21">
-        <f>SUM(C32:C34)</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="21">
-        <f t="shared" ref="D35:V35" si="27">SUM(D32:D34)</f>
-        <v>1</v>
-      </c>
-      <c r="E35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="G35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="H35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="M35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="N35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="P35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="R35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="S35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="T35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="U35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="V35" s="21">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="13">
+        <f>C29*C$23</f>
+        <v>2.3646093707476155E-3</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" ref="D36:V36" si="29">D29*D$23</f>
+        <v>5.9115234268690385E-3</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="29"/>
+        <v>9.458437482990462E-3</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="29"/>
+        <v>1.4187656224485694E-2</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="29"/>
+        <v>1.7734570280607116E-2</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="29"/>
+        <v>3.1528124943301537E-3</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="29"/>
+        <v>7.8820312358253847E-3</v>
+      </c>
+      <c r="J36" s="13">
+        <f t="shared" si="29"/>
+        <v>1.2611249977320615E-2</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="29"/>
+        <v>1.8916874965980924E-2</v>
+      </c>
+      <c r="L36" s="13">
+        <f t="shared" si="29"/>
+        <v>2.3646093707476154E-2</v>
+      </c>
+      <c r="M36" s="13">
+        <f t="shared" si="29"/>
+        <v>2.3646093707476155E-3</v>
+      </c>
+      <c r="N36" s="13">
+        <f t="shared" si="29"/>
+        <v>5.9115234268690385E-3</v>
+      </c>
+      <c r="O36" s="13">
+        <f t="shared" si="29"/>
+        <v>9.458437482990462E-3</v>
+      </c>
+      <c r="P36" s="13">
+        <f t="shared" si="29"/>
+        <v>1.4187656224485694E-2</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="29"/>
+        <v>1.7734570280607116E-2</v>
+      </c>
+      <c r="R36" s="13">
+        <f t="shared" si="29"/>
+        <v>6.3056249886603074E-3</v>
+      </c>
+      <c r="S36" s="13">
+        <f t="shared" si="29"/>
+        <v>1.5764062471650769E-2</v>
+      </c>
+      <c r="T36" s="13">
+        <f t="shared" si="29"/>
+        <v>2.522249995464123E-2</v>
+      </c>
+      <c r="U36" s="13">
+        <f t="shared" si="29"/>
+        <v>3.7833749931961848E-2</v>
+      </c>
+      <c r="V36" s="13">
+        <f t="shared" si="29"/>
+        <v>4.7292187414952308E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="15">
-        <f>C30*C$22</f>
+        <v>57</v>
+      </c>
+      <c r="C37" s="13">
+        <f>C30*C$23</f>
         <v>2.3646093707476155E-3</v>
       </c>
-      <c r="D37" s="15">
-        <f t="shared" ref="D37:V37" si="28">D30*D$22</f>
+      <c r="D37" s="13">
+        <f t="shared" ref="D37:V37" si="30">D30*D$23</f>
         <v>5.9115234268690385E-3</v>
       </c>
-      <c r="E37" s="15">
-        <f t="shared" si="28"/>
+      <c r="E37" s="13">
+        <f t="shared" si="30"/>
         <v>9.458437482990462E-3</v>
       </c>
-      <c r="F37" s="15">
-        <f t="shared" si="28"/>
+      <c r="F37" s="13">
+        <f t="shared" si="30"/>
         <v>1.4187656224485694E-2</v>
       </c>
-      <c r="G37" s="15">
-        <f t="shared" si="28"/>
+      <c r="G37" s="13">
+        <f t="shared" si="30"/>
         <v>1.7734570280607116E-2</v>
       </c>
-      <c r="H37" s="15">
-        <f t="shared" si="28"/>
+      <c r="H37" s="13">
+        <f t="shared" si="30"/>
         <v>3.1528124943301537E-3</v>
       </c>
-      <c r="I37" s="15">
-        <f t="shared" si="28"/>
+      <c r="I37" s="13">
+        <f t="shared" si="30"/>
         <v>7.8820312358253847E-3</v>
       </c>
-      <c r="J37" s="15">
-        <f t="shared" si="28"/>
+      <c r="J37" s="13">
+        <f t="shared" si="30"/>
         <v>1.2611249977320615E-2</v>
       </c>
-      <c r="K37" s="15">
-        <f t="shared" si="28"/>
+      <c r="K37" s="13">
+        <f t="shared" si="30"/>
         <v>1.8916874965980924E-2</v>
       </c>
-      <c r="L37" s="15">
-        <f t="shared" si="28"/>
+      <c r="L37" s="13">
+        <f t="shared" si="30"/>
         <v>2.3646093707476154E-2</v>
       </c>
-      <c r="M37" s="15">
-        <f t="shared" si="28"/>
+      <c r="M37" s="13">
+        <f t="shared" si="30"/>
         <v>2.3646093707476155E-3</v>
       </c>
-      <c r="N37" s="15">
-        <f t="shared" si="28"/>
+      <c r="N37" s="13">
+        <f t="shared" si="30"/>
         <v>5.9115234268690385E-3</v>
       </c>
-      <c r="O37" s="15">
-        <f t="shared" si="28"/>
+      <c r="O37" s="13">
+        <f t="shared" si="30"/>
         <v>9.458437482990462E-3</v>
       </c>
-      <c r="P37" s="15">
-        <f t="shared" si="28"/>
+      <c r="P37" s="13">
+        <f t="shared" si="30"/>
         <v>1.4187656224485694E-2</v>
       </c>
-      <c r="Q37" s="15">
-        <f t="shared" si="28"/>
+      <c r="Q37" s="13">
+        <f t="shared" si="30"/>
         <v>1.7734570280607116E-2</v>
       </c>
-      <c r="R37" s="15">
-        <f t="shared" si="28"/>
+      <c r="R37" s="13">
+        <f t="shared" si="30"/>
         <v>6.3056249886603074E-3</v>
       </c>
-      <c r="S37" s="15">
-        <f t="shared" si="28"/>
+      <c r="S37" s="13">
+        <f t="shared" si="30"/>
         <v>1.5764062471650769E-2</v>
       </c>
-      <c r="T37" s="15">
-        <f t="shared" si="28"/>
+      <c r="T37" s="13">
+        <f t="shared" si="30"/>
         <v>2.522249995464123E-2</v>
       </c>
-      <c r="U37" s="15">
-        <f t="shared" si="28"/>
+      <c r="U37" s="13">
+        <f t="shared" si="30"/>
         <v>3.7833749931961848E-2</v>
       </c>
-      <c r="V37" s="15">
-        <f t="shared" si="28"/>
+      <c r="V37" s="13">
+        <f t="shared" si="30"/>
         <v>4.7292187414952308E-2</v>
       </c>
     </row>
     <row r="38" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="15">
-        <f>C31*C$22</f>
-        <v>2.3646093707476155E-3</v>
-      </c>
-      <c r="D38" s="15">
-        <f t="shared" ref="D38:V38" si="29">D31*D$22</f>
-        <v>5.9115234268690385E-3</v>
-      </c>
-      <c r="E38" s="15">
-        <f t="shared" si="29"/>
+        <v>66</v>
+      </c>
+      <c r="C38" s="13">
+        <f>2*C36+2*C37</f>
         <v>9.458437482990462E-3</v>
       </c>
-      <c r="F38" s="15">
-        <f t="shared" si="29"/>
-        <v>1.4187656224485694E-2</v>
-      </c>
-      <c r="G38" s="15">
-        <f t="shared" si="29"/>
-        <v>1.7734570280607116E-2</v>
-      </c>
-      <c r="H38" s="15">
-        <f t="shared" si="29"/>
-        <v>3.1528124943301537E-3</v>
-      </c>
-      <c r="I38" s="15">
-        <f t="shared" si="29"/>
-        <v>7.8820312358253847E-3</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="29"/>
+      <c r="D38" s="13">
+        <f t="shared" ref="D38:V38" si="31">2*D36+2*D37</f>
+        <v>2.3646093707476154E-2</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="31"/>
+        <v>3.7833749931961848E-2</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="31"/>
+        <v>5.6750624897942775E-2</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="31"/>
+        <v>7.0938281122428462E-2</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="31"/>
         <v>1.2611249977320615E-2</v>
       </c>
-      <c r="K38" s="15">
-        <f t="shared" si="29"/>
-        <v>1.8916874965980924E-2</v>
-      </c>
-      <c r="L38" s="15">
-        <f t="shared" si="29"/>
+      <c r="I38" s="13">
+        <f t="shared" si="31"/>
+        <v>3.1528124943301539E-2</v>
+      </c>
+      <c r="J38" s="13">
+        <f t="shared" si="31"/>
+        <v>5.0444999909282459E-2</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="31"/>
+        <v>7.5667499863923696E-2</v>
+      </c>
+      <c r="L38" s="13">
+        <f t="shared" si="31"/>
+        <v>9.4584374829904616E-2</v>
+      </c>
+      <c r="M38" s="13">
+        <f t="shared" si="31"/>
+        <v>9.458437482990462E-3</v>
+      </c>
+      <c r="N38" s="13">
+        <f t="shared" si="31"/>
         <v>2.3646093707476154E-2</v>
       </c>
-      <c r="M38" s="15">
-        <f t="shared" si="29"/>
-        <v>2.3646093707476155E-3</v>
-      </c>
-      <c r="N38" s="15">
-        <f t="shared" si="29"/>
-        <v>5.9115234268690385E-3</v>
-      </c>
-      <c r="O38" s="15">
-        <f t="shared" si="29"/>
-        <v>9.458437482990462E-3</v>
-      </c>
-      <c r="P38" s="15">
-        <f t="shared" si="29"/>
-        <v>1.4187656224485694E-2</v>
-      </c>
-      <c r="Q38" s="15">
-        <f t="shared" si="29"/>
-        <v>1.7734570280607116E-2</v>
-      </c>
-      <c r="R38" s="15">
-        <f t="shared" si="29"/>
-        <v>6.3056249886603074E-3</v>
-      </c>
-      <c r="S38" s="15">
-        <f t="shared" si="29"/>
-        <v>1.5764062471650769E-2</v>
-      </c>
-      <c r="T38" s="15">
-        <f t="shared" si="29"/>
+      <c r="O38" s="13">
+        <f t="shared" si="31"/>
+        <v>3.7833749931961848E-2</v>
+      </c>
+      <c r="P38" s="13">
+        <f t="shared" si="31"/>
+        <v>5.6750624897942775E-2</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="31"/>
+        <v>7.0938281122428462E-2</v>
+      </c>
+      <c r="R38" s="13">
+        <f t="shared" si="31"/>
         <v>2.522249995464123E-2</v>
       </c>
-      <c r="U38" s="15">
-        <f t="shared" si="29"/>
-        <v>3.7833749931961848E-2</v>
-      </c>
-      <c r="V38" s="15">
-        <f t="shared" si="29"/>
-        <v>4.7292187414952308E-2</v>
+      <c r="S38" s="13">
+        <f t="shared" si="31"/>
+        <v>6.3056249886603077E-2</v>
+      </c>
+      <c r="T38" s="13">
+        <f t="shared" si="31"/>
+        <v>0.10088999981856492</v>
+      </c>
+      <c r="U38" s="13">
+        <f t="shared" si="31"/>
+        <v>0.15133499972784739</v>
+      </c>
+      <c r="V38" s="13">
+        <f t="shared" si="31"/>
+        <v>0.18916874965980923</v>
       </c>
     </row>
     <row r="39" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="15">
-        <f>2*C37+2*C38</f>
-        <v>9.458437482990462E-3</v>
-      </c>
-      <c r="D39" s="15">
-        <f t="shared" ref="D39:V39" si="30">2*D37+2*D38</f>
-        <v>2.3646093707476154E-2</v>
-      </c>
-      <c r="E39" s="15">
-        <f t="shared" si="30"/>
+        <v>58</v>
+      </c>
+      <c r="C39" s="13">
+        <f>C32*C$23</f>
+        <v>4.729218741495231E-3</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" ref="D39:V39" si="32">D32*D$23</f>
+        <v>1.1823046853738077E-2</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="32"/>
+        <v>1.8916874965980924E-2</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="32"/>
+        <v>2.8375312448971388E-2</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="32"/>
+        <v>3.5469140561214231E-2</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="32"/>
+        <v>6.3056249886603074E-3</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="32"/>
+        <v>1.5764062471650769E-2</v>
+      </c>
+      <c r="J39" s="13">
+        <f t="shared" si="32"/>
+        <v>2.522249995464123E-2</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="32"/>
         <v>3.7833749931961848E-2</v>
       </c>
-      <c r="F39" s="15">
-        <f t="shared" si="30"/>
-        <v>5.6750624897942775E-2</v>
-      </c>
-      <c r="G39" s="15">
-        <f t="shared" si="30"/>
-        <v>7.0938281122428462E-2</v>
-      </c>
-      <c r="H39" s="15">
-        <f t="shared" si="30"/>
+      <c r="L39" s="13">
+        <f t="shared" si="32"/>
+        <v>4.7292187414952308E-2</v>
+      </c>
+      <c r="M39" s="13">
+        <f t="shared" si="32"/>
+        <v>4.729218741495231E-3</v>
+      </c>
+      <c r="N39" s="13">
+        <f t="shared" si="32"/>
+        <v>1.1823046853738077E-2</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" si="32"/>
+        <v>1.8916874965980924E-2</v>
+      </c>
+      <c r="P39" s="13">
+        <f t="shared" si="32"/>
+        <v>2.8375312448971388E-2</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="32"/>
+        <v>3.5469140561214231E-2</v>
+      </c>
+      <c r="R39" s="13">
+        <f t="shared" si="32"/>
         <v>1.2611249977320615E-2</v>
       </c>
-      <c r="I39" s="15">
-        <f t="shared" si="30"/>
+      <c r="S39" s="13">
+        <f t="shared" si="32"/>
         <v>3.1528124943301539E-2</v>
       </c>
-      <c r="J39" s="15">
-        <f t="shared" si="30"/>
+      <c r="T39" s="13">
+        <f t="shared" si="32"/>
         <v>5.0444999909282459E-2</v>
       </c>
-      <c r="K39" s="15">
-        <f t="shared" si="30"/>
+      <c r="U39" s="13">
+        <f t="shared" si="32"/>
         <v>7.5667499863923696E-2</v>
       </c>
-      <c r="L39" s="15">
-        <f t="shared" si="30"/>
+      <c r="V39" s="13">
+        <f t="shared" si="32"/>
         <v>9.4584374829904616E-2</v>
-      </c>
-      <c r="M39" s="15">
-        <f t="shared" si="30"/>
-        <v>9.458437482990462E-3</v>
-      </c>
-      <c r="N39" s="15">
-        <f t="shared" si="30"/>
-        <v>2.3646093707476154E-2</v>
-      </c>
-      <c r="O39" s="15">
-        <f t="shared" si="30"/>
-        <v>3.7833749931961848E-2</v>
-      </c>
-      <c r="P39" s="15">
-        <f t="shared" si="30"/>
-        <v>5.6750624897942775E-2</v>
-      </c>
-      <c r="Q39" s="15">
-        <f t="shared" si="30"/>
-        <v>7.0938281122428462E-2</v>
-      </c>
-      <c r="R39" s="15">
-        <f t="shared" si="30"/>
-        <v>2.522249995464123E-2</v>
-      </c>
-      <c r="S39" s="15">
-        <f t="shared" si="30"/>
-        <v>6.3056249886603077E-2</v>
-      </c>
-      <c r="T39" s="15">
-        <f t="shared" si="30"/>
-        <v>0.10088999981856492</v>
-      </c>
-      <c r="U39" s="15">
-        <f t="shared" si="30"/>
-        <v>0.15133499972784739</v>
-      </c>
-      <c r="V39" s="15">
-        <f t="shared" si="30"/>
-        <v>0.18916874965980923</v>
       </c>
     </row>
     <row r="40" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="15">
-        <f>C33*C$22</f>
+        <v>59</v>
+      </c>
+      <c r="C40" s="13">
+        <f>C33*C$23</f>
         <v>4.729218741495231E-3</v>
       </c>
-      <c r="D40" s="15">
-        <f t="shared" ref="D40:V40" si="31">D33*D$22</f>
+      <c r="D40" s="13">
+        <f t="shared" ref="D40:V40" si="33">D33*D$23</f>
         <v>1.1823046853738077E-2</v>
       </c>
-      <c r="E40" s="15">
-        <f t="shared" si="31"/>
+      <c r="E40" s="13">
+        <f t="shared" si="33"/>
         <v>1.8916874965980924E-2</v>
       </c>
-      <c r="F40" s="15">
-        <f t="shared" si="31"/>
+      <c r="F40" s="13">
+        <f t="shared" si="33"/>
         <v>2.8375312448971388E-2</v>
       </c>
-      <c r="G40" s="15">
-        <f t="shared" si="31"/>
+      <c r="G40" s="13">
+        <f t="shared" si="33"/>
         <v>3.5469140561214231E-2</v>
       </c>
-      <c r="H40" s="15">
-        <f t="shared" si="31"/>
-        <v>6.3056249886603074E-3</v>
-      </c>
-      <c r="I40" s="15">
-        <f t="shared" si="31"/>
-        <v>1.5764062471650769E-2</v>
-      </c>
-      <c r="J40" s="15">
-        <f t="shared" si="31"/>
-        <v>2.522249995464123E-2</v>
-      </c>
-      <c r="K40" s="15">
-        <f t="shared" si="31"/>
-        <v>3.7833749931961848E-2</v>
-      </c>
-      <c r="L40" s="15">
-        <f t="shared" si="31"/>
-        <v>4.7292187414952308E-2</v>
-      </c>
-      <c r="M40" s="15">
-        <f t="shared" si="31"/>
+      <c r="H40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <f t="shared" si="33"/>
         <v>4.729218741495231E-3</v>
       </c>
-      <c r="N40" s="15">
-        <f t="shared" si="31"/>
+      <c r="N40" s="13">
+        <f t="shared" si="33"/>
         <v>1.1823046853738077E-2</v>
       </c>
-      <c r="O40" s="15">
-        <f t="shared" si="31"/>
+      <c r="O40" s="13">
+        <f t="shared" si="33"/>
         <v>1.8916874965980924E-2</v>
       </c>
-      <c r="P40" s="15">
-        <f t="shared" si="31"/>
+      <c r="P40" s="13">
+        <f t="shared" si="33"/>
         <v>2.8375312448971388E-2</v>
       </c>
-      <c r="Q40" s="15">
-        <f t="shared" si="31"/>
+      <c r="Q40" s="13">
+        <f t="shared" si="33"/>
         <v>3.5469140561214231E-2</v>
       </c>
-      <c r="R40" s="15">
-        <f t="shared" si="31"/>
-        <v>1.2611249977320615E-2</v>
-      </c>
-      <c r="S40" s="15">
-        <f t="shared" si="31"/>
-        <v>3.1528124943301539E-2</v>
-      </c>
-      <c r="T40" s="15">
-        <f t="shared" si="31"/>
-        <v>5.0444999909282459E-2</v>
-      </c>
-      <c r="U40" s="15">
-        <f t="shared" si="31"/>
-        <v>7.5667499863923696E-2</v>
-      </c>
-      <c r="V40" s="15">
-        <f t="shared" si="31"/>
-        <v>9.4584374829904616E-2</v>
+      <c r="R40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="15">
-        <f>C34*C$22</f>
-        <v>4.729218741495231E-3</v>
-      </c>
-      <c r="D41" s="15">
-        <f t="shared" ref="D41:V41" si="32">D34*D$22</f>
-        <v>1.1823046853738077E-2</v>
-      </c>
-      <c r="E41" s="15">
-        <f t="shared" si="32"/>
+        <v>67</v>
+      </c>
+      <c r="C41" s="13">
+        <f>SUM(C38:C40)</f>
         <v>1.8916874965980924E-2</v>
       </c>
-      <c r="F41" s="15">
-        <f t="shared" si="32"/>
-        <v>2.8375312448971388E-2</v>
-      </c>
-      <c r="G41" s="15">
-        <f t="shared" si="32"/>
-        <v>3.5469140561214231E-2</v>
-      </c>
-      <c r="H41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="15">
-        <f t="shared" si="32"/>
-        <v>4.729218741495231E-3</v>
-      </c>
-      <c r="N41" s="15">
-        <f t="shared" si="32"/>
-        <v>1.1823046853738077E-2</v>
-      </c>
-      <c r="O41" s="15">
-        <f t="shared" si="32"/>
+      <c r="D41" s="13">
+        <f t="shared" ref="D41:V41" si="34">SUM(D38:D40)</f>
+        <v>4.7292187414952308E-2</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="34"/>
+        <v>7.5667499863923696E-2</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="34"/>
+        <v>0.11350124979588555</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="34"/>
+        <v>0.14187656224485692</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="34"/>
+        <v>1.891687496598092E-2</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="34"/>
+        <v>4.7292187414952308E-2</v>
+      </c>
+      <c r="J41" s="13">
+        <f t="shared" si="34"/>
+        <v>7.5667499863923682E-2</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="shared" si="34"/>
+        <v>0.11350124979588555</v>
+      </c>
+      <c r="L41" s="13">
+        <f t="shared" si="34"/>
+        <v>0.14187656224485692</v>
+      </c>
+      <c r="M41" s="13">
+        <f t="shared" si="34"/>
         <v>1.8916874965980924E-2</v>
       </c>
-      <c r="P41" s="15">
-        <f t="shared" si="32"/>
-        <v>2.8375312448971388E-2</v>
-      </c>
-      <c r="Q41" s="15">
-        <f t="shared" si="32"/>
-        <v>3.5469140561214231E-2</v>
-      </c>
-      <c r="R41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="15">
-        <f t="shared" si="32"/>
-        <v>0</v>
+      <c r="N41" s="13">
+        <f t="shared" si="34"/>
+        <v>4.7292187414952308E-2</v>
+      </c>
+      <c r="O41" s="13">
+        <f t="shared" si="34"/>
+        <v>7.5667499863923696E-2</v>
+      </c>
+      <c r="P41" s="13">
+        <f t="shared" si="34"/>
+        <v>0.11350124979588555</v>
+      </c>
+      <c r="Q41" s="13">
+        <f t="shared" si="34"/>
+        <v>0.14187656224485692</v>
+      </c>
+      <c r="R41" s="13">
+        <f t="shared" si="34"/>
+        <v>3.7833749931961841E-2</v>
+      </c>
+      <c r="S41" s="13">
+        <f t="shared" si="34"/>
+        <v>9.4584374829904616E-2</v>
+      </c>
+      <c r="T41" s="13">
+        <f t="shared" si="34"/>
+        <v>0.15133499972784736</v>
+      </c>
+      <c r="U41" s="13">
+        <f t="shared" si="34"/>
+        <v>0.2270024995917711</v>
+      </c>
+      <c r="V41" s="13">
+        <f t="shared" si="34"/>
+        <v>0.28375312448971385</v>
       </c>
     </row>
     <row r="42" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="15">
-        <f>SUM(C39:C41)</f>
-        <v>1.8916874965980924E-2</v>
-      </c>
-      <c r="D42" s="15">
-        <f t="shared" ref="D42:V42" si="33">SUM(D39:D41)</f>
-        <v>4.7292187414952308E-2</v>
-      </c>
-      <c r="E42" s="15">
-        <f t="shared" si="33"/>
-        <v>7.5667499863923696E-2</v>
-      </c>
-      <c r="F42" s="15">
-        <f t="shared" si="33"/>
-        <v>0.11350124979588555</v>
-      </c>
-      <c r="G42" s="15">
-        <f t="shared" si="33"/>
-        <v>0.14187656224485692</v>
-      </c>
-      <c r="H42" s="15">
-        <f t="shared" si="33"/>
-        <v>1.891687496598092E-2</v>
-      </c>
-      <c r="I42" s="15">
-        <f t="shared" si="33"/>
-        <v>4.7292187414952308E-2</v>
-      </c>
-      <c r="J42" s="15">
-        <f t="shared" si="33"/>
-        <v>7.5667499863923682E-2</v>
-      </c>
-      <c r="K42" s="15">
-        <f t="shared" si="33"/>
-        <v>0.11350124979588555</v>
-      </c>
-      <c r="L42" s="15">
-        <f t="shared" si="33"/>
-        <v>0.14187656224485692</v>
-      </c>
-      <c r="M42" s="15">
-        <f t="shared" si="33"/>
-        <v>1.8916874965980924E-2</v>
-      </c>
-      <c r="N42" s="15">
-        <f t="shared" si="33"/>
-        <v>4.7292187414952308E-2</v>
-      </c>
-      <c r="O42" s="15">
-        <f t="shared" si="33"/>
-        <v>7.5667499863923696E-2</v>
-      </c>
-      <c r="P42" s="15">
-        <f t="shared" si="33"/>
-        <v>0.11350124979588555</v>
-      </c>
-      <c r="Q42" s="15">
-        <f t="shared" si="33"/>
-        <v>0.14187656224485692</v>
-      </c>
-      <c r="R42" s="15">
-        <f t="shared" si="33"/>
-        <v>3.7833749931961841E-2</v>
-      </c>
-      <c r="S42" s="15">
-        <f t="shared" si="33"/>
-        <v>9.4584374829904616E-2</v>
-      </c>
-      <c r="T42" s="15">
-        <f t="shared" si="33"/>
-        <v>0.15133499972784736</v>
-      </c>
-      <c r="U42" s="15">
-        <f t="shared" si="33"/>
-        <v>0.2270024995917711</v>
-      </c>
-      <c r="V42" s="15">
-        <f t="shared" si="33"/>
-        <v>0.28375312448971385</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C42" s="13">
+        <f>C41*$D$5</f>
+        <v>29.321156197270433</v>
+      </c>
+      <c r="D42" s="13">
+        <f t="shared" ref="D42:V42" si="35">D41*$D$5</f>
+        <v>73.302890493176079</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="35"/>
+        <v>117.28462478908173</v>
+      </c>
+      <c r="F42" s="13">
+        <f t="shared" si="35"/>
+        <v>175.92693718362261</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="35"/>
+        <v>219.90867147952824</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="35"/>
+        <v>29.321156197270426</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="35"/>
+        <v>73.302890493176079</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="35"/>
+        <v>117.2846247890817</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="shared" si="35"/>
+        <v>175.92693718362261</v>
+      </c>
+      <c r="L42" s="13">
+        <f t="shared" si="35"/>
+        <v>219.90867147952824</v>
+      </c>
+      <c r="M42" s="13">
+        <f t="shared" si="35"/>
+        <v>29.321156197270433</v>
+      </c>
+      <c r="N42" s="13">
+        <f t="shared" si="35"/>
+        <v>73.302890493176079</v>
+      </c>
+      <c r="O42" s="13">
+        <f t="shared" si="35"/>
+        <v>117.28462478908173</v>
+      </c>
+      <c r="P42" s="13">
+        <f t="shared" si="35"/>
+        <v>175.92693718362261</v>
+      </c>
+      <c r="Q42" s="13">
+        <f t="shared" si="35"/>
+        <v>219.90867147952824</v>
+      </c>
+      <c r="R42" s="13">
+        <f t="shared" si="35"/>
+        <v>58.642312394540852</v>
+      </c>
+      <c r="S42" s="13">
+        <f t="shared" si="35"/>
+        <v>146.60578098635216</v>
+      </c>
+      <c r="T42" s="13">
+        <f t="shared" si="35"/>
+        <v>234.56924957816341</v>
+      </c>
+      <c r="U42" s="13">
+        <f t="shared" si="35"/>
+        <v>351.85387436724523</v>
+      </c>
+      <c r="V42" s="13">
+        <f t="shared" si="35"/>
+        <v>439.81734295905648</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="15">
-        <f>C42*$D$5</f>
-        <v>29.321156197270433</v>
-      </c>
-      <c r="D43" s="15">
-        <f t="shared" ref="D43:V43" si="34">D42*$D$5</f>
-        <v>73.302890493176079</v>
-      </c>
-      <c r="E43" s="15">
-        <f t="shared" si="34"/>
-        <v>117.28462478908173</v>
-      </c>
-      <c r="F43" s="15">
-        <f t="shared" si="34"/>
-        <v>175.92693718362261</v>
-      </c>
-      <c r="G43" s="15">
-        <f t="shared" si="34"/>
-        <v>219.90867147952824</v>
-      </c>
-      <c r="H43" s="15">
-        <f t="shared" si="34"/>
-        <v>29.321156197270426</v>
-      </c>
-      <c r="I43" s="15">
-        <f t="shared" si="34"/>
-        <v>73.302890493176079</v>
-      </c>
-      <c r="J43" s="15">
-        <f t="shared" si="34"/>
-        <v>117.2846247890817</v>
-      </c>
-      <c r="K43" s="15">
-        <f t="shared" si="34"/>
-        <v>175.92693718362261</v>
-      </c>
-      <c r="L43" s="15">
-        <f t="shared" si="34"/>
-        <v>219.90867147952824</v>
-      </c>
-      <c r="M43" s="15">
-        <f t="shared" si="34"/>
-        <v>29.321156197270433</v>
-      </c>
-      <c r="N43" s="15">
-        <f t="shared" si="34"/>
-        <v>73.302890493176079</v>
-      </c>
-      <c r="O43" s="15">
-        <f t="shared" si="34"/>
-        <v>117.28462478908173</v>
-      </c>
-      <c r="P43" s="15">
-        <f t="shared" si="34"/>
-        <v>175.92693718362261</v>
-      </c>
-      <c r="Q43" s="15">
-        <f t="shared" si="34"/>
-        <v>219.90867147952824</v>
-      </c>
-      <c r="R43" s="15">
-        <f t="shared" si="34"/>
-        <v>58.642312394540852</v>
-      </c>
-      <c r="S43" s="15">
-        <f t="shared" si="34"/>
-        <v>146.60578098635216</v>
-      </c>
-      <c r="T43" s="15">
-        <f t="shared" si="34"/>
-        <v>234.56924957816341</v>
-      </c>
-      <c r="U43" s="15">
-        <f t="shared" si="34"/>
-        <v>351.85387436724523</v>
-      </c>
-      <c r="V43" s="15">
-        <f t="shared" si="34"/>
-        <v>439.81734295905648</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f>IF(C42=C22,"YES","NO")</f>
+        <v>68</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" ref="C43:V43" si="36">IF(C41=C23,"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" ref="D44:V44" si="35">IF(D42=D22,"YES","NO")</f>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="E44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="F44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="G44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="H44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="I44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="J44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="J43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="K44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="L44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="M44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="N44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="O44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="P44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="P43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="Q44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="R44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="R43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="S44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="S43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="T44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="T43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="U44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="U43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
-      <c r="V44" s="1" t="str">
-        <f t="shared" si="35"/>
+      <c r="V43" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>YES</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C44:V44">
+  <conditionalFormatting sqref="C43:V43">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
